--- a/EDER_GOMEZ_4TO_BIMESTRE_SEXTO.xlsx
+++ b/EDER_GOMEZ_4TO_BIMESTRE_SEXTO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\otonashieder2\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\otonashieder2\Desktop\GRADOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,8 +13,6 @@
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -2163,8 +2161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GI357"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="BL67" sqref="BL67"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="BA29" sqref="BA29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2744,7 +2742,7 @@
       <c r="CR2" s="3"/>
       <c r="CS2" s="3"/>
       <c r="CT2" s="15">
-        <f t="shared" ref="CT2:CT76" si="7">ROUND(AVERAGE(CP2:CS2),0)</f>
+        <f t="shared" ref="CT2:CT60" si="7">ROUND(AVERAGE(CP2:CS2),0)</f>
         <v>18</v>
       </c>
       <c r="CU2" s="16">
@@ -2826,11 +2824,11 @@
       <c r="W3" s="4"/>
       <c r="X3" s="3"/>
       <c r="Y3" s="5">
-        <f t="shared" ref="Y3:Y77" si="12">ROUND(AVERAGE(E3,I3,M3,Q3,U3),0)</f>
+        <f t="shared" ref="Y3:Y60" si="12">ROUND(AVERAGE(E3,I3,M3,Q3,U3),0)</f>
         <v>16</v>
       </c>
       <c r="Z3" s="5">
-        <f t="shared" ref="Z3:Z77" si="13">ROUND(AVERAGE(F3,J3,N3,R3,V3),0)</f>
+        <f t="shared" ref="Z3:Z60" si="13">ROUND(AVERAGE(F3,J3,N3,R3,V3),0)</f>
         <v>16</v>
       </c>
       <c r="AA3" s="3">
@@ -2872,7 +2870,7 @@
       </c>
       <c r="AP3" s="3"/>
       <c r="AQ3" s="6">
-        <f t="shared" ref="AQ3:AQ77" si="14">ROUND(AVERAGE(AA3,AE3,AI3,AM3),0)</f>
+        <f t="shared" ref="AQ3:AQ65" si="14">ROUND(AVERAGE(AA3,AE3,AI3,AM3),0)</f>
         <v>16</v>
       </c>
       <c r="AR3" s="6">
@@ -2908,7 +2906,7 @@
         <v>18</v>
       </c>
       <c r="BE3" s="7">
-        <f t="shared" ref="BE3:BE77" si="16">ROUND(AVERAGE(AS3,AW3,BA3),0)</f>
+        <f t="shared" ref="BE3:BE60" si="16">ROUND(AVERAGE(AS3,AW3,BA3),0)</f>
         <v>16</v>
       </c>
       <c r="BF3" s="7">
@@ -2936,11 +2934,11 @@
       </c>
       <c r="BN3" s="3"/>
       <c r="BO3" s="8">
-        <f t="shared" ref="BO3:BO77" si="18">ROUND(AVERAGE(BG3,BK3),0)</f>
+        <f t="shared" ref="BO3:BO60" si="18">ROUND(AVERAGE(BG3,BK3),0)</f>
         <v>15</v>
       </c>
       <c r="BP3" s="8">
-        <f t="shared" ref="BP3:BP77" si="19">ROUND(AVERAGE(BH3,BL3),0)</f>
+        <f t="shared" ref="BP3:BP60" si="19">ROUND(AVERAGE(BH3,BL3),0)</f>
         <v>15</v>
       </c>
       <c r="BQ3" s="9">
@@ -2954,7 +2952,7 @@
       <c r="BS3" s="3"/>
       <c r="BT3" s="3"/>
       <c r="BU3" s="10">
-        <f t="shared" ref="BU3:BU77" si="20">ROUND(AVERAGE(BQ3:BT3),0)</f>
+        <f t="shared" ref="BU3:BU60" si="20">ROUND(AVERAGE(BQ3:BT3),0)</f>
         <v>15</v>
       </c>
       <c r="BV3" s="9">
@@ -3031,7 +3029,7 @@
       <c r="CW3" s="16"/>
       <c r="CX3" s="15"/>
       <c r="CY3" s="16">
-        <f t="shared" ref="CY3:CY77" si="21">+CU5+CV5+CW5+CX3</f>
+        <f t="shared" ref="CY3:CY57" si="21">+CU5+CV5+CW5+CX3</f>
         <v>583</v>
       </c>
       <c r="CZ3" s="17"/>
@@ -3067,9 +3065,7 @@
       <c r="K4" s="31">
         <v>18</v>
       </c>
-      <c r="L4" s="31">
-        <v>17</v>
-      </c>
+      <c r="L4" s="31"/>
       <c r="M4" s="31">
         <v>17</v>
       </c>
@@ -3079,9 +3075,7 @@
       <c r="O4" s="31">
         <v>17</v>
       </c>
-      <c r="P4" s="31">
-        <v>17</v>
-      </c>
+      <c r="P4" s="31"/>
       <c r="Q4" s="31">
         <v>14</v>
       </c>
@@ -3177,9 +3171,7 @@
       <c r="BC4" s="31">
         <v>18</v>
       </c>
-      <c r="BD4" s="31">
-        <v>18</v>
-      </c>
+      <c r="BD4" s="31"/>
       <c r="BE4" s="7">
         <f t="shared" si="16"/>
         <v>14</v>
@@ -8473,9 +8465,7 @@
       <c r="K25" s="31">
         <v>16</v>
       </c>
-      <c r="L25" s="31">
-        <v>16</v>
-      </c>
+      <c r="L25" s="31"/>
       <c r="M25" s="31">
         <v>16</v>
       </c>
@@ -8485,9 +8475,7 @@
       <c r="O25" s="31">
         <v>16</v>
       </c>
-      <c r="P25" s="31">
-        <v>16</v>
-      </c>
+      <c r="P25" s="31"/>
       <c r="Q25" s="31">
         <v>13</v>
       </c>
@@ -8575,9 +8563,7 @@
       <c r="BC25" s="31">
         <v>16</v>
       </c>
-      <c r="BD25" s="31">
-        <v>16</v>
-      </c>
+      <c r="BD25" s="31"/>
       <c r="BE25" s="7">
         <f t="shared" si="16"/>
         <v>14</v>
@@ -9527,9 +9513,7 @@
       <c r="K29" s="21">
         <v>16</v>
       </c>
-      <c r="L29" s="21">
-        <v>16</v>
-      </c>
+      <c r="L29" s="21"/>
       <c r="M29" s="21">
         <v>17</v>
       </c>
@@ -9539,9 +9523,7 @@
       <c r="O29" s="21">
         <v>16</v>
       </c>
-      <c r="P29" s="21">
-        <v>16</v>
-      </c>
+      <c r="P29" s="21"/>
       <c r="Q29" s="21">
         <v>14</v>
       </c>
@@ -9629,9 +9611,7 @@
       <c r="BC29" s="21">
         <v>17</v>
       </c>
-      <c r="BD29" s="21">
-        <v>17</v>
-      </c>
+      <c r="BD29" s="21"/>
       <c r="BE29" s="7">
         <f t="shared" si="16"/>
         <v>16</v>
@@ -9763,9 +9743,7 @@
       <c r="K30" s="21">
         <v>8</v>
       </c>
-      <c r="L30" s="21">
-        <v>16</v>
-      </c>
+      <c r="L30" s="21"/>
       <c r="M30" s="21">
         <v>17</v>
       </c>
@@ -9775,9 +9753,7 @@
       <c r="O30" s="21">
         <v>8</v>
       </c>
-      <c r="P30" s="21">
-        <v>17</v>
-      </c>
+      <c r="P30" s="21"/>
       <c r="Q30" s="21">
         <v>16</v>
       </c>
@@ -9869,9 +9845,7 @@
       <c r="BC30" s="21">
         <v>8</v>
       </c>
-      <c r="BD30" s="21">
-        <v>8</v>
-      </c>
+      <c r="BD30" s="21"/>
       <c r="BE30" s="7">
         <f t="shared" si="16"/>
         <v>14</v>
@@ -16755,9 +16729,7 @@
       <c r="K57" s="3">
         <v>17</v>
       </c>
-      <c r="L57" s="3">
-        <v>16</v>
-      </c>
+      <c r="L57" s="3"/>
       <c r="M57" s="3">
         <v>15</v>
       </c>
@@ -16767,9 +16739,7 @@
       <c r="O57" s="3">
         <v>16</v>
       </c>
-      <c r="P57" s="3">
-        <v>16</v>
-      </c>
+      <c r="P57" s="3"/>
       <c r="Q57" s="3">
         <v>14</v>
       </c>
@@ -16865,9 +16835,7 @@
       <c r="BC57" s="3">
         <v>16</v>
       </c>
-      <c r="BD57" s="3">
-        <v>16</v>
-      </c>
+      <c r="BD57" s="3"/>
       <c r="BE57" s="7">
         <f t="shared" si="16"/>
         <v>14</v>
@@ -17555,9 +17523,7 @@
       <c r="K60" s="93">
         <v>16</v>
       </c>
-      <c r="L60" s="93">
-        <v>16</v>
-      </c>
+      <c r="L60" s="93"/>
       <c r="M60" s="93">
         <v>16</v>
       </c>
@@ -17567,9 +17533,7 @@
       <c r="O60" s="93">
         <v>17</v>
       </c>
-      <c r="P60" s="93">
-        <v>17</v>
-      </c>
+      <c r="P60" s="93"/>
       <c r="Q60" s="93">
         <v>16</v>
       </c>
@@ -17665,9 +17629,7 @@
       <c r="BC60" s="93">
         <v>17</v>
       </c>
-      <c r="BD60" s="93">
-        <v>17</v>
-      </c>
+      <c r="BD60" s="93"/>
       <c r="BE60" s="139">
         <f t="shared" si="16"/>
         <v>15</v>
@@ -47672,28 +47634,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>